--- a/sentiment_results_Equifax_Q3.xlsx
+++ b/sentiment_results_Equifax_Q3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mortgage Fees, Market Fees, Market share, Market share</t>
+          <t>Mortgage Fees, Market share, Market share</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Sector trend</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
@@ -474,12 +474,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recurring revenue, Hard market</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
@@ -534,12 +534,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ECB interest rate</t>
+          <t>Interest rate, IT spending</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Regulation</t>
+          <t>Macro, Financial metric - IT</t>
         </is>
       </c>
     </row>
@@ -554,12 +554,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Product Cycle / Upcoming Product Cycle, New store productivity, Organic growth, Premium growth</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
         </is>
       </c>
     </row>
@@ -574,12 +574,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
         </is>
       </c>
     </row>
@@ -614,12 +614,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
         </is>
       </c>
     </row>
@@ -650,36 +650,36 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.611220359802246</v>
+        <v>-6.860421657562256</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hard market</t>
+          <t>Earnings per Share / EPS, Recurring revenue, Units per transaction</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Revising guidance down to reflect the impact of weaker than expected U.S. mortgage market and foreign exchange, partially offset by acquisition of Boa Vista Serviços. Reducing full year 2023 guidance at the midpoint to revenue of $5.256 billion and Adjusted EPS of $6.67 per share.</t>
+          <t>"Equifax executed well against our strategic priorities, our $210 million spending reduction plan, and earnings framework in the third quarter, despite lower than expected revenue principally due to a challenging mortgage market as well as foreign exchange. Revenue of $1.319 billion, including $23 million of revenue from the Boa Vista acquisition, was up 6% with Adjusted EPS of $1.76 per share up 2% versus last year. Equifax had strong organic local currency non-mortgage revenue growth of 7% from continued strong new product performance with a record New Product Vitality Index of 15%. However, throughout the</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.860421657562256</v>
+        <v>-2.918372869491577</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Recurring revenue, Rate per contract, 2 year – 10 year spread, Units per transaction</t>
+          <t>Recurring revenue, IT spending</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Bank, Macro</t>
+          <t>Financial metric - All, Financial metric - IT</t>
         </is>
       </c>
     </row>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.918372869491577</v>
+        <v>-1.135501623153687</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Recurring revenue, Hard market</t>
+          <t>Revenue, Earnings per Share / EPS, Revenue growth, Recurring revenue, Market share, Revenue Growth , Units per transaction, Market share</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
@@ -710,36 +710,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.135501623153687</v>
+        <v>-0.7212297916412354</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Revenue, Earnings per Share / EPS, Recurring revenue, Rate per contract, 2 year – 10 year spread, Market share, Revenue Growth Acceleration, Revenue Growth Deceleration, Units per transaction, Market share</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Bank, Macro</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>"Equifax executed well against our strategic priorities, our $210 million spending reduction plan, and earnings framework in the third quarter, despite lower than expected revenue principally due to a challenging mortgage market as well as foreign exchange. Revenue of $1.319 billion, including $23 million of revenue from the Boa Vista acquisition, was up 6% with Adjusted EPS of $1.76 per share up 2% versus last year. Equifax had strong organic local currency non-mortgage revenue growth of 7% from continued strong new product performance with a record New Product Vitality Index of 15%. However, throughout the</t>
+          <t>quarter, we saw U.S. mortgage activity decline to levels below our expectations as interest rates increased, which impacted mortgage revenue in Workforce Solutions and USIS. Workforce Solutions delivered strong 11% non-mortgage revenue growth from very strong revenue growth in Government. USIS delivered a strong quarter, with strong B2B Online non-mortgage revenue growth of 10%, and International delivered total local currency revenue growth of 12% and organic local currency revenue growth of 3%.</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.7212297916412354</v>
+        <v>-7.582425117492676</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Product Cycle / Upcoming Product Cycle, Credit portfolio performance, New store productivity, Organic growth, Premium growth</t>
+          <t>Recurring revenue, Order rates</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
@@ -750,16 +750,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.582425117492676</v>
+        <v>-0.9700448513031006</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Recurring revenue, Interest rates, ECB interest rate, Order rates</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Regulation, Macro</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
         </is>
       </c>
     </row>
@@ -770,56 +770,56 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.9700448513031006</v>
+        <v>-0.9898867607116699</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>quarter, we saw U.S. mortgage activity decline to levels below our expectations as interest rates increased, which impacted mortgage revenue in Workforce Solutions and USIS. Workforce Solutions delivered strong 11% non-mortgage revenue growth from very strong revenue growth in Government. USIS delivered a strong quarter, with strong B2B Online non-mortgage revenue growth of 10%, and International delivered total local currency revenue growth of 12% and organic local currency revenue growth of 3%.</t>
+          <t>"We are reducing full year 2023 guidance at the midpoint to revenue of $5.256 billion and Adjusted EPS guidance of $6.67 per share, a reduction of $44 million and $0.31 per share, respectively. The reduction in both revenue and Adjusted EPS are principally due to the weaker U.S. mortgage market and the impact of foreign exchange partially offset by the benefit from our Boa Vista acquisition. We expect the weaker U.S. mortgage market at current high interest rates to continue in the fourth quarter, and we now expect full year Equifax mortgage credit inquiries to decline about 34%, which is down over 3 percentage points from our prior framework.</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.9898867607116699</v>
+        <v>-6.313618183135986</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
+          <t>Earnings per Share / EPS, Recurring revenue, Units per transaction</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>In August, we closed the acquisition of Boa Vista Serviços, the second largest credit bureau in Brazil. This acquisition will expand Equifax capabilities in the large and fast-growing Brazilian market and add to our diverse International portfolio while giving Boa Vista Serviços access to our expansive global capabilities and cloud-native data, products, decisioning and analytical technology for the rapid development of new products and services, and expansion into new industries." said Mark W. Begor, Equifax Chief Executive Officer.</t>
+          <t>"We are reducing full year 2023 guidance at the midpoint to revenue of $5.256 billion and Adjusted EPS guidance of $6.67 per share, a reduction of $44 million and $0.31 per share, respectively. The reduction in both revenue and Adjusted EPS are principally due to the weaker U.S. mortgage market and the impact of foreign exchange partially offset by the benefit from our Boa Vista acquisition. We expect the weaker U.S. mortgage market at current high interest rates to continue in the fourth quarter, and we now expect full year Equifax mortgage credit inquiries to decline about 34%, which is down over 3 percentage points from our prior framework.</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0008788108825683594</v>
+        <v>-7.190528869628906</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hard market, Seasonal products, Credit portfolio performance</t>
+          <t>Earnings per Share / EPS, Recurring revenue</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
@@ -830,147 +830,147 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-6.313618183135986</v>
+        <v>-7.400306224822998</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Recurring revenue, Rate per contract, 2 year – 10 year spread, Units per transaction</t>
+          <t>Order rates</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Bank, Macro</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>"We are reducing full year 2023 guidance at the midpoint to revenue of $5.256 billion and Adjusted EPS guidance of $6.67 per share, a reduction of $44 million and $0.31 per share, respectively. The reduction in both revenue and Adjusted EPS are principally due to the weaker U.S. mortgage market and the impact of foreign exchange partially offset by the benefit from our Boa Vista acquisition. We expect the weaker U.S. mortgage market at current high interest rates to continue in the fourth quarter, and we now expect full year Equifax mortgage credit inquiries to decline about 34%, which is down over 3 percentage points from our prior framework.</t>
+          <t>While the second half of 2023 has been challenging with the accelerated decline in the U.S. mortgage market, we are energized by the expected strong 13% non-mortgage revenue growth in the fourth quarter, which represents over 85% of Equifax revenue. We are confident in the future of the New Equifax as we move toward completion of our EFX Cloud and Data transformation, leveraging our new Cloud capabilities to accelerate new product roll-outs that 'Only Equifax' can provide, which will drive growth in 2024 and beyond. We are energized about the New Equifax that will deliver higher margins and free cash flow."</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-7.190528869628906</v>
+        <v>-0.7318809032440186</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Recurring revenue</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>"We are reducing full year 2023 guidance at the midpoint to revenue of $5.256 billion and Adjusted EPS guidance of $6.67 per share, a reduction of $44 million and $0.31 per share, respectively. The reduction in both revenue and Adjusted EPS are principally due to the weaker U.S. mortgage market and the impact of foreign exchange partially offset by the benefit from our Boa Vista acquisition. We expect the weaker U.S. mortgage market at current high interest rates to continue in the fourth quarter, and we now expect full year Equifax mortgage credit inquiries to decline about 34%, which is down over 3 percentage points from our prior framework.</t>
+          <t>While the second half of 2023 has been challenging with the accelerated decline in the U.S. mortgage market, we are energized by the expected strong 13% non-mortgage revenue growth in the fourth quarter, which represents over 85% of Equifax revenue. We are confident in the future of the New Equifax as we move toward completion of our EFX Cloud and Data transformation, leveraging our new Cloud capabilities to accelerate new product roll-outs that 'Only Equifax' can provide, which will drive growth in 2024 and beyond. We are energized about the New Equifax that will deliver higher margins and free cash flow."</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.439566135406494</v>
+        <v>-0.7636332511901855</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hard market</t>
+          <t>Revenue growth, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>"We are reducing full year 2023 guidance at the midpoint to revenue of $5.256 billion and Adjusted EPS guidance of $6.67 per share, a reduction of $44 million and $0.31 per share, respectively. The reduction in both revenue and Adjusted EPS are principally due to the weaker U.S. mortgage market and the impact of foreign exchange partially offset by the benefit from our Boa Vista acquisition. We expect the weaker U.S. mortgage market at current high interest rates to continue in the fourth quarter, and we now expect full year Equifax mortgage credit inquiries to decline about 34%, which is down over 3 percentage points from our prior framework.</t>
+          <t>While the second half of 2023 has been challenging with the accelerated decline in the U.S. mortgage market, we are energized by the expected strong 13% non-mortgage revenue growth in the fourth quarter, which represents over 85% of Equifax revenue. We are confident in the future of the New Equifax as we move toward completion of our EFX Cloud and Data transformation, leveraging our new Cloud capabilities to accelerate new product roll-outs that 'Only Equifax' can provide, which will drive growth in 2024 and beyond. We are energized about the New Equifax that will deliver higher margins and free cash flow."</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-7.400306224822998</v>
+        <v>-0.7230749130249023</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2 year – 10 year spread, Interest rates, ECB interest rate, Hard market, Order rates</t>
+          <t>Pre-tax margins, Operating margins, Incremental margins, New store productivity</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sector trend, Regulation, Macro</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>While the second half of 2023 has been challenging with the accelerated decline in the U.S. mortgage market, we are energized by the expected strong 13% non-mortgage revenue growth in the fourth quarter, which represents over 85% of Equifax revenue. We are confident in the future of the New Equifax as we move toward completion of our EFX Cloud and Data transformation, leveraging our new Cloud capabilities to accelerate new product roll-outs that 'Only Equifax' can provide, which will drive growth in 2024 and beyond. We are energized about the New Equifax that will deliver higher margins and free cash flow."</t>
+          <t>The company reported revenue of $1,319.1 million in the third quarter of 2023, up 6% compared to the third quarter of 2022 on a reported basis and up 7% on a local currency basis.</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.7318809032440186</v>
+        <v>-1.372366905212402</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>While the second half of 2023 has been challenging with the accelerated decline in the U.S. mortgage market, we are energized by the expected strong 13% non-mortgage revenue growth in the fourth quarter, which represents over 85% of Equifax revenue. We are confident in the future of the New Equifax as we move toward completion of our EFX Cloud and Data transformation, leveraging our new Cloud capabilities to accelerate new product roll-outs that 'Only Equifax' can provide, which will drive growth in 2024 and beyond. We are energized about the New Equifax that will deliver higher margins and free cash flow."</t>
+          <t>Net income attributable to Equifax of $162.2 million was down 2% in the third quarter of 2023 compared to $165.7 million in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.7636332511901855</v>
+        <v>-7.279138088226318</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Core growth, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
+          <t>Net Interest Income, Net Interest Margin (NIM)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>While the second half of 2023 has been challenging with the accelerated decline in the U.S. mortgage market, we are energized by the expected strong 13% non-mortgage revenue growth in the fourth quarter, which represents over 85% of Equifax revenue. We are confident in the future of the New Equifax as we move toward completion of our EFX Cloud and Data transformation, leveraging our new Cloud capabilities to accelerate new product roll-outs that 'Only Equifax' can provide, which will drive growth in 2024 and beyond. We are energized about the New Equifax that will deliver higher margins and free cash flow."</t>
+          <t>Diluted EPS attributable to Equifax was $1.31 for the third quarter of 2023, down 2% compared to $1.34 in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.7230749130249023</v>
+        <v>-7.200281143188477</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pre-tax margins, Operating margins, Incremental margins, New store productivity</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>The company reported revenue of $1,319.1 million in the third quarter of 2023, up 6% compared to the third quarter of 2022 on a reported basis and up 7% on a local currency basis.</t>
+          <t>Total revenue was $577.2 million in the third quarter of 2023, up 3% compared to the third quarter of 2022. Operating margin for Workforce Solutions was 41.8% in the third quarter of 2023 compared to 41.3% in the third quarter of 2022. Adjusted EBITDA margin for Workforce Solutions was 50.9% in the third quarter of 2023 compared to</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.372366905212402</v>
+        <v>-1.506735324859619</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -986,35 +986,35 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Net income attributable to Equifax of $162.2 million was down 2% in the third quarter of 2023 compared to $165.7 million in the third quarter of 2022.</t>
+          <t>Total revenue was $577.2 million in the third quarter of 2023, up 3% compared to the third quarter of 2022. Operating margin for Workforce Solutions was 41.8% in the third quarter of 2023 compared to 41.3% in the third quarter of 2022. Adjusted EBITDA margin for Workforce Solutions was 50.9% in the third quarter of 2023 compared to</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-7.279138088226318</v>
+        <v>-8.200130462646484</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM), Credit income</t>
+          <t>Operating Expenses, Operating margins, Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Diluted EPS attributable to Equifax was $1.31 for the third quarter of 2023, down 2% compared to $1.34 in the third quarter of 2022.</t>
+          <t>Total revenue was $577.2 million in the third quarter of 2023, up 3% compared to the third quarter of 2022. Operating margin for Workforce Solutions was 41.8% in the third quarter of 2023 compared to 41.3% in the third quarter of 2022. Adjusted EBITDA margin for Workforce Solutions was 50.9% in the third quarter of 2023 compared to</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-7.200281143188477</v>
+        <v>-7.808566093444824</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1026,11 +1026,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Total revenue was $577.2 million in the third quarter of 2023, up 3% compared to the third quarter of 2022. Operating margin for Workforce Solutions was 41.8% in the third quarter of 2023 compared to 41.3% in the third quarter of 2022. Adjusted EBITDA margin for Workforce Solutions was 50.9% in the third quarter of 2023 compared to</t>
+          <t>Verification Services revenue was $459.3 million, up 1% compared to the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.506735324859619</v>
+        <v>-1.301515817642212</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1046,15 +1046,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Total revenue was $577.2 million in the third quarter of 2023, up 3% compared to the third quarter of 2022. Operating margin for Workforce Solutions was 41.8% in the third quarter of 2023 compared to 41.3% in the third quarter of 2022. Adjusted EBITDA margin for Workforce Solutions was 50.9% in the third quarter of 2023 compared to</t>
+          <t>Employer Services revenue was $117.9 million, up 13% compared to the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-8.200130462646484</v>
+        <v>-1.267562627792358</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Operating margins, Gross margin, Contribution margin</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1066,15 +1066,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total revenue was $577.2 million in the third quarter of 2023, up 3% compared to the third quarter of 2022. Operating margin for Workforce Solutions was 41.8% in the third quarter of 2023 compared to 41.3% in the third quarter of 2022. Adjusted EBITDA margin for Workforce Solutions was 50.9% in the third quarter of 2023 compared to</t>
+          <t>Total revenue was $ 426.0 million in the third quarter of 2023, up 7% compared to $397.4 million in the third quarter of 2022. Operating margin for USIS was 21.1% in the third quarter of 2023 compared to 20.6% in the third quarter of 2022. Adjusted EBITDA margin for USIS was 34.2% in the third quarter of 2023 compared to 34.1% in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-7.808566093444824</v>
+        <v>-1.628238439559937</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1086,15 +1086,15 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Verification Services revenue was $459.3 million, up 1% compared to the third quarter of 2022.</t>
+          <t>Total revenue was $ 426.0 million in the third quarter of 2023, up 7% compared to $397.4 million in the third quarter of 2022. Operating margin for USIS was 21.1% in the third quarter of 2023 compared to 20.6% in the third quarter of 2022. Adjusted EBITDA margin for USIS was 34.2% in the third quarter of 2023 compared to 34.1% in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.301515817642212</v>
+        <v>-7.191104888916016</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Operating Expenses, Operating margins, Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1106,15 +1106,15 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Employer Services revenue was $117.9 million, up 13% compared to the third quarter of 2022.</t>
+          <t>Total revenue was $ 426.0 million in the third quarter of 2023, up 7% compared to $397.4 million in the third quarter of 2022. Operating margin for USIS was 21.1% in the third quarter of 2023 compared to 20.6% in the third quarter of 2022. Adjusted EBITDA margin for USIS was 34.2% in the third quarter of 2023 compared to 34.1% in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.267562627792358</v>
+        <v>-8.155389785766602</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1126,11 +1126,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Total revenue was $ 426.0 million in the third quarter of 2023, up 7% compared to $397.4 million in the third quarter of 2022. Operating margin for USIS was 21.1% in the third quarter of 2023 compared to 20.6% in the third quarter of 2022. Adjusted EBITDA margin for USIS was 34.2% in the third quarter of 2023 compared to 34.1% in the third quarter of 2022.</t>
+          <t>Online Information Solutions revenue was $348.2 million, up 11% compared to the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.628238439559937</v>
+        <v>-1.342178106307983</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1146,35 +1146,35 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Total revenue was $ 426.0 million in the third quarter of 2023, up 7% compared to $397.4 million in the third quarter of 2022. Operating margin for USIS was 21.1% in the third quarter of 2023 compared to 20.6% in the third quarter of 2022. Adjusted EBITDA margin for USIS was 34.2% in the third quarter of 2023 compared to 34.1% in the third quarter of 2022.</t>
+          <t>Mortgage Solutions revenue was $27.3 million, down 15% compared to the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-7.191104888916016</v>
+        <v>-6.963126182556152</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Operating margins, Gross margin, Contribution margin</t>
+          <t>Recurring revenue, Mortgage Fees</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Total revenue was $ 426.0 million in the third quarter of 2023, up 7% compared to $397.4 million in the third quarter of 2022. Operating margin for USIS was 21.1% in the third quarter of 2023 compared to 20.6% in the third quarter of 2022. Adjusted EBITDA margin for USIS was 34.2% in the third quarter of 2023 compared to 34.1% in the third quarter of 2022.</t>
+          <t>Financial Marketing Services revenue was $50.5 million, down 1% compared to the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-8.155389785766602</v>
+        <v>-6.78261661529541</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1186,11 +1186,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Online Information Solutions revenue was $348.2 million, up 11% compared to the third quarter of 2022.</t>
+          <t>Total revenue was $315.9 million in the third quarter of 2023, up 10% and 12% compared to the third quarter of 2022 on a reported and local currency basis, respectively. Operating margin for International was 12.7% in the third quarter of 2023, compared to 14.8% in the third quarter of 2022. Adjusted EBITDA margin for International was 26.2% in the third quarter of 2023, compared to 26.8% in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.342178106307983</v>
+        <v>-1.426563739776611</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1206,35 +1206,35 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mortgage Solutions revenue was $27.3 million, down 15% compared to the third quarter of 2022.</t>
+          <t>Total revenue was $315.9 million in the third quarter of 2023, up 10% and 12% compared to the third quarter of 2022 on a reported and local currency basis, respectively. Operating margin for International was 12.7% in the third quarter of 2023, compared to 14.8% in the third quarter of 2022. Adjusted EBITDA margin for International was 26.2% in the third quarter of 2023, compared to 26.8% in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-6.963126182556152</v>
+        <v>-6.240444183349609</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Recurring revenue, Mortgage Fees</t>
+          <t>Operating Expenses, Operating margins, Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Financial metric - All, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Financial Marketing Services revenue was $50.5 million, down 1% compared to the third quarter of 2022.</t>
+          <t>Total revenue was $315.9 million in the third quarter of 2023, up 10% and 12% compared to the third quarter of 2022 on a reported and local currency basis, respectively. Operating margin for International was 12.7% in the third quarter of 2023, compared to 14.8% in the third quarter of 2022. Adjusted EBITDA margin for International was 26.2% in the third quarter of 2023, compared to 26.8% in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.78261661529541</v>
+        <v>-7.978439807891846</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1246,11 +1246,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Total revenue was $315.9 million in the third quarter of 2023, up 10% and 12% compared to the third quarter of 2022 on a reported and local currency basis, respectively. Operating margin for International was 12.7% in the third quarter of 2023, compared to 14.8% in the third quarter of 2022. Adjusted EBITDA margin for International was 26.2% in the third quarter of 2023, compared to 26.8% in the third quarter of 2022.</t>
+          <t>Asia Pacific revenue was $85.5 million, down 2% and up 2% compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.426563739776611</v>
+        <v>-7.552392482757568</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1266,15 +1266,15 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Total revenue was $315.9 million in the third quarter of 2023, up 10% and 12% compared to the third quarter of 2022 on a reported and local currency basis, respectively. Operating margin for International was 12.7% in the third quarter of 2023, compared to 14.8% in the third quarter of 2022. Adjusted EBITDA margin for International was 26.2% in the third quarter of 2023, compared to 26.8% in the third quarter of 2022.</t>
+          <t>Europe revenue was $85.2 million, up 6% and down 2% compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-6.240444183349609</v>
+        <v>-8.421835899353027</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Operating margins, Gross margin, Contribution margin</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1286,15 +1286,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Total revenue was $315.9 million in the third quarter of 2023, up 10% and 12% compared to the third quarter of 2022 on a reported and local currency basis, respectively. Operating margin for International was 12.7% in the third quarter of 2023, compared to 14.8% in the third quarter of 2022. Adjusted EBITDA margin for International was 26.2% in the third quarter of 2023, compared to 26.8% in the third quarter of 2022.</t>
+          <t>Canada revenue was $65.1 million, down 2% and flat compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-7.978439807891846</v>
+        <v>-6.906427383422852</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1306,11 +1306,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Asia Pacific revenue was $85.5 million, down 2% and up 2% compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>Latin America revenue was $80.1 million, up 48% and 62% compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-7.552392482757568</v>
+        <v>-1.28839635848999</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1326,55 +1326,55 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Europe revenue was $85.2 million, up 6% and down 2% compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>Adjusted EPS and Adjusted EBITDA Margin</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-8.421835899353027</v>
+        <v>8.244378089904785</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Earnings per Share / EPS, Net Interest Margin (NIM), Margin improvement, Margin Expansion</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Canada revenue was $65.1 million, down 2% and flat compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>Adjusted EPS attributable to Equifax was $1.76 in the third quarter of 2023, up 2% compared to the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-6.906427383422852</v>
+        <v>-1.726415157318115</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Recurring revenue, Yield Curve steep / flat / inverted</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Financial metric - All, Macro</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Latin America revenue was $80.1 million, up 48% and 62% compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>Adjusted EBITDA margin was 33.1% in the third quarter of 2023 compared to 32.5% in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-1.28839635848999</v>
+        <v>-7.835155963897705</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1386,35 +1386,35 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Adjusted EPS and Adjusted EBITDA Margin</t>
+          <t>Fourth quarter and full year guidance includes Boa Vista Serviços revenue of $38 million and $61 million, respectively.</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8.244378089904785</v>
+        <v>9.737997055053711</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Transaction Margin, Net Interest Margin (NIM), Margin improvement, Margin Expansion</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Adjusted EPS attributable to Equifax was $1.76 in the third quarter of 2023, up 2% compared to the third quarter of 2022.</t>
+          <t>Earnings Conference Call and Audio Webcast</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1.726415157318115</v>
+        <v>9.427364349365234</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS</t>
+          <t>Earnings, Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1426,55 +1426,55 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Adjusted EBITDA margin was 33.1% in the third quarter of 2023 compared to 32.5% in the third quarter of 2022.</t>
+          <t>This earnings release presents adjusted EPS attributable to Equifax which is diluted EPS attributable to Equifax adjusted (to the extent noted above for different periods) for acquisition-related amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension plan, and adjustments to deferred tax balances. All adjustments are net of tax, with a reconciling item with the aggregated tax impact of the adjustments. This earnings release also presents (i) adjusted EBITDA and adjusted EBITDA margin which is defined as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization, and also excludes certain one-time items, (ii) local currency revenue change which is calculated by conforming 2023 results using 2022 exchange rates and (iii) organic local currency revenue growth which is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. These are important financial measures for Equifax but are not</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-7.835155963897705</v>
+        <v>8.71605110168457</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin</t>
+          <t>Earnings per Share / EPS, Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fourth quarter and full year guidance includes Boa Vista Serviços revenue of $38 million and $61 million, respectively.</t>
+          <t>This earnings release presents adjusted EPS attributable to Equifax which is diluted EPS attributable to Equifax adjusted (to the extent noted above for different periods) for acquisition-related amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension plan, and adjustments to deferred tax balances. All adjustments are net of tax, with a reconciling item with the aggregated tax impact of the adjustments. This earnings release also presents (i) adjusted EBITDA and adjusted EBITDA margin which is defined as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization, and also excludes certain one-time items, (ii) local currency revenue change which is calculated by conforming 2023 results using 2022 exchange rates and (iii) organic local currency revenue growth which is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. These are important financial measures for Equifax but are not</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>9.737997055053711</v>
+        <v>5.415698051452637</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Recurring revenue, 2 year – 10 year spread</t>
+          <t>Gross margin, Contribution margin, Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Wage increase, Supplier price increase, Organic growth, Order rates, Premium growth</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Financial metric - All, Macro</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Earnings Conference Call and Audio Webcast</t>
+          <t>These non-GAAP financial measures should be reviewed in conjunction with the relevant GAAP financial measures and are not presented as an alternative measure of net income or EPS as determined in accordance with GAAP.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>9.427364349365234</v>
+        <v>9.319746971130371</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Earnings, Earnings per Share / EPS</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1486,155 +1486,155 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>This earnings release presents adjusted EPS attributable to Equifax which is diluted EPS attributable to Equifax adjusted (to the extent noted above for different periods) for acquisition-related amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension plan, and adjustments to deferred tax balances. All adjustments are net of tax, with a reconciling item with the aggregated tax impact of the adjustments. This earnings release also presents (i) adjusted EBITDA and adjusted EBITDA margin which is defined as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization, and also excludes certain one-time items, (ii) local currency revenue change which is calculated by conforming 2023 results using 2022 exchange rates and (iii) organic local currency revenue growth which is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. These are important financial measures for Equifax but are not</t>
+          <t>This release contains forward-looking statements and forward-looking information. These statements can be identified by expressions of belief, expectation or intention, as well as statements that are not historical fact. These statements are based on certain factors and assumptions including with respect to foreign exchange rates, expected growth, results of operations, performance, business prospects and opportunities, the U.S. mortgage market, economic conditions and effective tax rates. While the Company believes these factors and assumptions to be reasonable based on information currently available, they may prove to be incorrect.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>8.71605110168457</v>
+        <v>9.415772438049316</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Order rates</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>This earnings release presents adjusted EPS attributable to Equifax which is diluted EPS attributable to Equifax adjusted (to the extent noted above for different periods) for acquisition-related amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension plan, and adjustments to deferred tax balances. All adjustments are net of tax, with a reconciling item with the aggregated tax impact of the adjustments. This earnings release also presents (i) adjusted EBITDA and adjusted EBITDA margin which is defined as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization, and also excludes certain one-time items, (ii) local currency revenue change which is calculated by conforming 2023 results using 2022 exchange rates and (iii) organic local currency revenue growth which is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. These are important financial measures for Equifax but are not</t>
+          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5.415698051452637</v>
+        <v>-3.478864669799805</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin, Core growth, Recurring revenue, Aftermarket growth, Loan growth, 2 year – 10 year spread, Interest rates, ECB interest rate, Wage increase, Supplier price increase, Credit income, Organic growth, Order rates, Premium growth</t>
+          <t>Order rates</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Financial metric - All, Regulation, Financial metric - Bank, Macro, Financial metric - Insurance, Sector trend</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>These non-GAAP financial measures should be reviewed in conjunction with the relevant GAAP financial measures and are not presented as an alternative measure of net income or EPS as determined in accordance with GAAP.</t>
+          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>9.319746971130371</v>
+        <v>-7.285895347595215</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Credit income</t>
+          <t>Interest rate, Price increases</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend</t>
+          <t>Macro, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>This release contains forward-looking statements and forward-looking information. These statements can be identified by expressions of belief, expectation or intention, as well as statements that are not historical fact. These statements are based on certain factors and assumptions including with respect to foreign exchange rates, expected growth, results of operations, performance, business prospects and opportunities, the U.S. mortgage market, economic conditions and effective tax rates. While the Company believes these factors and assumptions to be reasonable based on information currently available, they may prove to be incorrect.</t>
+          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>9.415772438049316</v>
+        <v>4.192033767700195</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Interest rates, Order rates, Terms and conditions</t>
+          <t>Climate risk, Same Store sales , Order rates</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Insurance, Macro</t>
+          <t>Macro, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting</t>
+          <t>businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to realize the anticipated strategic and financial benefits sought from acquisitions; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates. A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1. Business -- Governmental Regulation" and "-- Forward -Looking Statements" and "Item 1A. Risk Factors" and in our other filings with the U.S. Securities and Exchange Commission. Forward-looking statements are given only as at the date of this release and the Company disclaims any obligation to update or revise the forward-looking statements, whether as a result of new information, future events or otherwise, except as required by law.</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9.013272285461426</v>
+        <v>8.375314712524414</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hard market</t>
+          <t>Credit cost, Regulation, Fuel cost, Order rates, Regulation</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Macro, Regulation, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting</t>
+          <t>Operating activities:</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-3.478864669799805</v>
+        <v>9.566032409667969</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Interest rates, ECB interest rate, Seasonal products, Order rates, Terms and conditions</t>
+          <t>Operating Expenses, Operating margins</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Insurance, Regulation, Macro</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting</t>
+          <t>Stock-based compensation expense</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-7.285895347595215</v>
+        <v>9.348362922668457</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ECB interest rate, Seasonal products, Price increases, Terms and conditions</t>
+          <t>Incentive compensation</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Insurance, Regulation</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting</t>
+          <t>Gain on fair market value adjustment and gain on sale of equity investments</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-5.885262489318848</v>
+        <v>1.014253377914429</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Green financing</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1646,115 +1646,115 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting</t>
+          <t>Cash provided by operating activities</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4.192033767700195</v>
+        <v>9.502907752990723</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Climate risk, Interest rates, ECB interest rate, Peak regulation, Seasonal products, Same store sales comps, Same Store sales, Order rates, Terms and conditions</t>
+          <t>Promotional activities</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Insurance, Regulation, Macro</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to realize the anticipated strategic and financial benefits sought from acquisitions; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates. A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1. Business -- Governmental Regulation" and "-- Forward -Looking Statements" and "Item 1A. Risk Factors" and in our other filings with the U.S. Securities and Exchange Commission. Forward-looking statements are given only as at the date of this release and the Company disclaims any obligation to update or revise the forward-looking statements, whether as a result of new information, future events or otherwise, except as required by law.</t>
+          <t>Capital expenditures</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>8.375314712524414</v>
+        <v>9.56110954284668</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Credit cost, Regulation, Interest rates, Regulation, Regulation, Hard market, Seasonal products, Fuel cost, Order rates, Price cost spread</t>
+          <t>Capital Requirements</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sector trend, Regulation, Financial metric - Bank, Macro</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to realize the anticipated strategic and financial benefits sought from acquisitions; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates. A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1. Business -- Governmental Regulation" and "-- Forward -Looking Statements" and "Item 1A. Risk Factors" and in our other filings with the U.S. Securities and Exchange Commission. Forward-looking statements are given only as at the date of this release and the Company disclaims any obligation to update or revise the forward-looking statements, whether as a result of new information, future events or otherwise, except as required by law.</t>
+          <t>Cash used in investing activities</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8.931619644165039</v>
+        <v>9.598879814147949</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2 year – 10 year spread</t>
+          <t>Promotional activities</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to realize the anticipated strategic and financial benefits sought from acquisitions; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates. A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1. Business -- Governmental Regulation" and "-- Forward -Looking Statements" and "Item 1A. Risk Factors" and in our other filings with the U.S. Securities and Exchange Commission. Forward-looking statements are given only as at the date of this release and the Company disclaims any obligation to update or revise the forward-looking statements, whether as a result of new information, future events or otherwise, except as required by law.</t>
+          <t>Net short-term borrowings</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9.342348098754883</v>
+        <v>9.339049339294434</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Risk adjustment</t>
+          <t>Net Interest Income, Net Interest Margin (NIM)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to realize the anticipated strategic and financial benefits sought from acquisitions; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates. A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1. Business -- Governmental Regulation" and "-- Forward -Looking Statements" and "Item 1A. Risk Factors" and in our other filings with the U.S. Securities and Exchange Commission. Forward-looking statements are given only as at the date of this release and the Company disclaims any obligation to update or revise the forward-looking statements, whether as a result of new information, future events or otherwise, except as required by law.</t>
+          <t>Dividends paid to Equifax shareholders</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9.425971984863281</v>
+        <v>9.525489807128906</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Exchange Volume / Trading Volume</t>
+          <t>Dividends</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Operating activities:</t>
+          <t>Dividends paid to noncontrolling interests</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>9.566032409667969</v>
+        <v>9.560897827148438</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Operating margins</t>
+          <t>Dividends</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1766,15 +1766,15 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Consolidated net income</t>
+          <t>Debt issuance costs</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>9.571161270141602</v>
+        <v>9.389931678771973</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Credit income</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1786,15 +1786,15 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Adjustments to reconcile consolidated net income to net cash provided by operating activities:</t>
+          <t>Cash provided by financing activities</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>8.782445907592773</v>
+        <v>9.536092758178711</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Credit income</t>
+          <t>Promotional activities</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1806,175 +1806,175 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Stock-based compensation expense</t>
+          <t>Effect of foreign currency exchange rates on cash and cash equivalents Increase in cash and cash equivalents</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9.348362922668457</v>
+        <v>9.724746704101562</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Incentive compensation, Logistics expense</t>
+          <t>Order rates</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Deferred income taxes</t>
+          <t>Can you provide a further analysis of operating revenue by operating segment?</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9.015305519104004</v>
+        <v>9.428127288818359</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Bank taxes, Credit income</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Gain on fair market value adjustment and gain on sale of equity investments</t>
+          <t>Operating revenue consists of the following components:</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.014253377914429</v>
+        <v>9.342753410339355</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Operating Expenses, Operating margins, Recurring revenue</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Changes in assets and liabilities, excluding effects of acquisitions:</t>
+          <t>Local currency revenue change is calculated by conforming 2023 results using 2022 exchange rates.</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>9.365899085998535</v>
+        <v>9.568716049194336</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cash provided by operating activities</t>
+          <t>Organic local currency revenue growth is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. This adjustment is made for 12 months following the acquisition.</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9.502907752990723</v>
+        <v>-0.8470168113708496</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Promotional activities</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Wage increase, Supplier price increase, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Capital expenditures</t>
+          <t>What is the estimate of the change in overall U.S. Mortgage Market credit inquiry volume that is included in the 2023 fourth quarter and full year guidance provided?</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>9.56110954284668</v>
+        <v>9.636693954467773</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Capital Return, Capital Requirements / Common Equity Tier 1 Capital / Leverage Ratio / Tier 1 Leverage Ratio, Capital buffer</t>
+          <t>Mortgage Fees, Market share, Market share</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Financial metric - All, Financial metric - Insurance, Macro</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cash used in investing activities</t>
+          <t>The change year over year in total U.S. mortgage credit inquiries received by Equifax in the third quarter of 2023 was a decline of 29%. The guidance provided on page 3 assumes a change year over year in total U.S. Mortgage Market Credit inquiries received by Equifax in the fourth quarter of 2023 to be a decline of about 22%. For full year 2023, our guidance assumes a decline of about 34%.</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>9.598879814147949</v>
+        <v>-7.206784725189209</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Promotional activities</t>
+          <t>Mortgage Fees, Credit cost, Market share, Credit card balance, Market share</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Net short-term borrowings</t>
+          <t>In the third quarter of 2023, what was the revenue impact of foreign currency versus the July revenue guidance?</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9.339049339294434</v>
+        <v>4.865614891052246</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM)</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Dividends paid to Equifax shareholders</t>
+          <t>The strengthening of the U.S. dollar resulted in a lower third quarter of 2023 Equifax revenue from foreign currency exchange of $6 million versus the quarterly revenue guidance we provided in July 2023.</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>9.525489807128906</v>
+        <v>-7.364653587341309</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Dividends, Preferred Dividends</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -1986,215 +1986,215 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Dividends paid to noncontrolling interests</t>
+          <t>(Dollars in millions, except per share amounts)</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>9.560897827148438</v>
+        <v>9.524150848388672</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Dividends, Preferred Dividends</t>
+          <t>Earnings per Share / EPS, Market share, Units per transaction, Market share</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Payment of taxes related to settlement of equity awards</t>
+          <t>Reconciliation of net income attributable to Equifax to diluted EPS attributable to Equifax, defined as net income adjusted for acquisition-related amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>9.489163398742676</v>
+        <v>9.152857780456543</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Bank taxes</t>
+          <t>Earnings per Share / EPS, Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Debt issuance costs</t>
+          <t>During the third quarter of 2023, we recorded a loss on the fair market value adjustment of equity investments of $0.2 million</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9.389931678771973</v>
+        <v>-7.122627258300781</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cash provided by financing activities</t>
+          <t>($0.1 million, net of tax). During the third quarter of 2022, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $17.5 million ($11.4 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>9.536092758178711</v>
+        <v>-0.8353958129882812</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Green financing, Promotional activities</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Effect of foreign currency exchange rates on cash and cash equivalents Increase in cash and cash equivalents</t>
+          <t>($0.1 million, net of tax). During the third quarter of 2022, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $17.5 million ($11.4 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>9.724746704101562</v>
+        <v>9.423862457275391</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Interest rates, Order rates</t>
+          <t>Net Interest Income, Collateral value</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sector trend, Macro</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Common Questions &amp; Answers (Unaudited)</t>
+          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million. During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>9.504463195800781</v>
+        <v>-1.067872285842896</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Capital Requirements / Common Equity Tier 1 Capital / Leverage Ratio / Tier 1 Leverage Ratio</t>
+          <t>Non-performing loans</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Can you provide a further analysis of operating revenue by operating segment?</t>
+          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million. During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>9.428127288818359</v>
+        <v>-0.9982714653015137</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Non-performing loans</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Operating revenue consists of the following components:</t>
+          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million. During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>9.342753410339355</v>
+        <v>9.439018249511719</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Operating margins, Recurring revenue</t>
+          <t>Net Interest Income</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Local currency revenue change is calculated by conforming 2023 results using 2022 exchange rates.</t>
+          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9.568716049194336</v>
+        <v>9.229917526245117</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Organic local currency revenue growth is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. This adjustment is made for 12 months following the acquisition.</t>
+          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.8470168113708496</v>
+        <v>9.317598342895508</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, 2 year – 10 year spread, Wage increase, Supplier price increase, Organic growth, Premium growth</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Financial metric - All, Financial metric - Bank, Macro, Financial metric - Insurance, Sector trend</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Organic local currency revenue growth is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. This adjustment is made for 12 months following the acquisition.</t>
+          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>9.472862243652344</v>
+        <v>8.538983345031738</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Risk adjustment</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2206,275 +2206,275 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>What is the estimate of the change in overall U.S. Mortgage Market credit inquiry volume that is included in the 2023 fourth quarter and full year guidance provided?</t>
+          <t>During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation expense in excess of amounts recorded for compensation costs. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>9.636693954467773</v>
+        <v>5.860235691070557</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Mortgage Fees, Market Fees, 2 year – 10 year spread, Market share, Market share</t>
+          <t>Incentive compensation, Distribution costs</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Macro</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>The change year over year in total U.S. mortgage credit inquiries received by Equifax in the third quarter of 2023 was a decline of 29%. The guidance provided on page 3 assumes a change year over year in total U.S. Mortgage Market Credit inquiries received by Equifax in the fourth quarter of 2023 to be a decline of about 22%. For full year 2023, our guidance assumes a decline of about 34%.</t>
+          <t>During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation expense in excess of amounts recorded for compensation costs. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>9.540085792541504</v>
+        <v>3.816748380661011</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2 year – 10 year spread</t>
+          <t>Incentive compensation, Distribution costs</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>The change year over year in total U.S. mortgage credit inquiries received by Equifax in the third quarter of 2023 was a decline of 29%. The guidance provided on page 3 assumes a change year over year in total U.S. Mortgage Market Credit inquiries received by Equifax in the fourth quarter of 2023 to be a decline of about 22%. For full year 2023, our guidance assumes a decline of about 34%.</t>
+          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the third quarter of 2023 and 2022, we recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>9.52836799621582</v>
+        <v>-5.917209148406982</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2 year – 10 year spread</t>
+          <t>Materials inflation, Claims inflation, Order rates</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Macro, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>The change year over year in total U.S. mortgage credit inquiries received by Equifax in the third quarter of 2023 was a decline of 29%. The guidance provided on page 3 assumes a change year over year in total U.S. Mortgage Market Credit inquiries received by Equifax in the fourth quarter of 2023 to be a decline of about 22%. For full year 2023, our guidance assumes a decline of about 34%.</t>
+          <t>During the third quarter of 2023, we recorded an adjustment of $2.3 million ($1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-7.206784725189209</v>
+        <v>6.892058372497559</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mortgage Fees, Market Fees, Private Credit, Credit cost, Market share, Credit card fees, Credit income, Credit portfolio performance, Market share</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Sector trend</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>The change year over year in total U.S. mortgage credit inquiries received by Equifax in the third quarter of 2023 was a decline of 29%. The guidance provided on page 3 assumes a change year over year in total U.S. Mortgage Market Credit inquiries received by Equifax in the fourth quarter of 2023 to be a decline of about 22%. For full year 2023, our guidance assumes a decline of about 34%.</t>
+          <t>During the third quarter of 2022, we recorded a gain on the settlement of Canada pension plan of $2.2 million ($3.1 million, net of tax). We received a tax deduction for the settlement payments made resulting in a tax benefit. The impact is recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-6.989058017730713</v>
+        <v>9.445126533508301</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2 year – 10 year spread</t>
+          <t>Net Interest Income</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>In the third quarter of 2023, what was the revenue impact of foreign currency versus the July revenue guidance?</t>
+          <t>During the third quarter of 2023, we recorded the tax impact of adjustments of $16.7 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $12.7 million ($16.7 million of tax expense net of $4.0 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to the fair market value adjustment of equity investments, (iii) a tax adjustment of $4.5 million related to acquisition-related costs other than acquisition amortization and (iv) a tax adjustment of $0.6 million related to the realignment of resources.</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4.865614891052246</v>
+        <v>8.505781173706055</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>The strengthening of the U.S. dollar resulted in a lower third quarter of 2023 Equifax revenue from foreign currency exchange of $6 million versus the quarterly revenue guidance we provided in July 2023.</t>
+          <t>During the third quarter of 2022, we recorded the tax impact of adjustments of $10.6 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $11.0 million ($15.1 million of tax expense net of $4.1 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to an accrual for legal and regulatory matters related to the 2017 cybersecurity incident, (iii) a tax adjustment of $6.1 million related to the gain on fair market value adjustment and gain on sale of equity investment, (iv) a tax adjustment of $4.7 million related to acquisition-related costs other than acquisition amortization and</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-7.364653587341309</v>
+        <v>8.563408851623535</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>(Dollars in millions, except per share amounts)</t>
+          <t>Reconciliation of net income attributable to Equifax to adjusted EBITDA, defined as net income excluding income taxes, interest expense, net, depreciation and amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension and presentation of adjusted EBITDA margin:</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>9.524150848388672</v>
+        <v>8.663798332214355</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Rate per contract, Market share, Units per transaction, Market share</t>
+          <t>Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Reconciliation of net income attributable to Equifax to diluted EPS attributable to Equifax, defined as net income adjusted for acquisition-related amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition</t>
+          <t>During the third quarter of 2023, we recorded a loss on the fair market value adjustment of equity investments of $0.2 million</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>9.152857780456543</v>
+        <v>-7.122627258300781</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension plan, adjustments to deferred tax balances and aggregated tax impact of these adjustments:</t>
+          <t>($0.1 million, net of tax). During the third quarter of 2022, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $17.5 million ($11.4 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6.692049980163574</v>
+        <v>-0.8353958129882812</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Credit income</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax). We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. The $12.7 million of tax is comprised of $16.7 million of tax expense net of $4.0 million of a cash income tax benefit. During the third quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $59.1 million ($48.1 million, net of tax). The $11.0 million of tax is comprised of $15.1 million of tax expense net of $4.1 million of a cash income tax benefit. See the Notes to this reconciliation for additional detail.</t>
+          <t>($0.1 million, net of tax). During the third quarter of 2022, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $17.5 million ($11.4 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3.870471239089966</v>
+        <v>9.423862457275391</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Logistics expense</t>
+          <t>Net Interest Income, Collateral value</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax). We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. The $12.7 million of tax is comprised of $16.7 million of tax expense net of $4.0 million of a cash income tax benefit. During the third quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $59.1 million ($48.1 million, net of tax). The $11.0 million of tax is comprised of $15.1 million of tax expense net of $4.1 million of a cash income tax benefit. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million. During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6.792271614074707</v>
+        <v>-1.067872285842896</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Logistics expense, Credit income</t>
+          <t>Non-performing loans</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax). We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. The $12.7 million of tax is comprised of $16.7 million of tax expense net of $4.0 million of a cash income tax benefit. During the third quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $59.1 million ($48.1 million, net of tax). The $11.0 million of tax is comprised of $15.1 million of tax expense net of $4.1 million of a cash income tax benefit. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million. During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>9.285879135131836</v>
+        <v>-0.9982714653015137</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Logistics expense, Credit income</t>
+          <t>Non-performing loans</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax). We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. The $12.7 million of tax is comprised of $16.7 million of tax expense net of $4.0 million of a cash income tax benefit. During the third quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $59.1 million ($48.1 million, net of tax). The $11.0 million of tax is comprised of $15.1 million of tax expense net of $4.1 million of a cash income tax benefit. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3.181070327758789</v>
+        <v>9.229917526245117</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Logistics expense</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2486,15 +2486,15 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax). We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. The $12.7 million of tax is comprised of $16.7 million of tax expense net of $4.0 million of a cash income tax benefit. During the third quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $59.1 million ($48.1 million, net of tax). The $11.0 million of tax is comprised of $15.1 million of tax expense net of $4.1 million of a cash income tax benefit. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9.283344268798828</v>
+        <v>9.317598342895508</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Logistics expense, Credit income</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2506,75 +2506,75 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a loss on the fair market value adjustment of equity investments of $0.2 million</t>
+          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-7.122627258300781</v>
+        <v>8.538983345031738</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Sector trend</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>($0.1 million, net of tax). During the third quarter of 2022, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $17.5 million ($11.4 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the third quarter of 2023 and 2022, we recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.8353958129882812</v>
+        <v>-5.917209148406982</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Materials inflation, Claims inflation, Order rates</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Sector trend</t>
+          <t>Macro, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>($0.1 million, net of tax). During the third quarter of 2022, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $17.5 million ($11.4 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>During the third quarter of 2023, we recorded an adjustment of $2.3 million ($1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>9.423862457275391</v>
+        <v>6.892058372497559</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Net Interest Income, Fee Income, Collateral value</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million. During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the third quarter of 2022, we recorded a gain on the settlement of Canada pension plan of $2.2 million ($3.1 million, net of tax). We received a tax deduction for the settlement payments made resulting in a tax benefit. The impact is recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1.067872285842896</v>
+        <v>9.445126533508301</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Net Interest Income</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2586,175 +2586,175 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million. During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Reconciliation of operating income by segment to Adjusted EBITDA, excluding depreciation and amortization expense, other income, net, noncontrolling interest, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension and presentation of adjusted EBITDA margin for each of the segments:</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.9982714653015137</v>
+        <v>8.498407363891602</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Gross margin, Contribution margin, Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million. During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the third quarter of 2023, we recorded pre-tax expenses of $14.2 million for an accrual for legal and regulatory matters related to the 2017 cybersecurity incident, a $0.2 million loss on the fair value adjustment of equity investments, a $0.4 million foreign currency gain on certain intercompany loans, $24.4 million for acquisition-related costs other than acquisition amortization, a foreign currency loss of $0.4 million related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy and $2.3 million of an adjustment to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023.</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>9.439018249511719</v>
+        <v>-2.115517139434814</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Net Interest Income, Fee Income</t>
+          <t>Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the third quarter of 2022, we recorded pre-tax expenses of $0.2 million for accrual for legal and regulatory matters related to the 2017 cybersecurity incident, a $17.5 million unrealized gain on the fair value adjustment and gain on sale of equity investments, a $0.5 million foreign currency gain on certain intercompany loans, $19.1 million in acquisition-related costs other than acquisition amortization, a $0.2 million foreign currency gain related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy and a gain of $2.2 million on the settlement of Canada pension plan.</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>9.229917526245117</v>
+        <v>-1.308243989944458</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Diluted EPS attributable to Equifax is adjusted for the following items:</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>9.317598342895508</v>
+        <v>9.254966735839844</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Acquisition-related amortization expense - During the third quarter of 2023 and 2022, we recorded acquisition -related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax) and $59.1 million ($48.1 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>8.538983345031738</v>
+        <v>9.315138816833496</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs, Credit income</t>
+          <t>Raw material</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation expense in excess of amounts recorded for compensation costs. See the Notes to this reconciliation for additional detail.</t>
+          <t>Acquisition-related amortization expense - During the third quarter of 2023 and 2022, we recorded acquisition -related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax) and $59.1 million ($48.1 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5.860235691070557</v>
+        <v>0.6353862285614014</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Incentive compensation, Distribution costs, Buying costs</t>
+          <t>Raw material</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation expense in excess of amounts recorded for compensation costs. See the Notes to this reconciliation for additional detail.</t>
+          <t>Acquisition-related amortization expense - During the third quarter of 2023 and 2022, we recorded acquisition -related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax) and $59.1 million ($48.1 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3.816748380661011</v>
+        <v>-0.5581936836242676</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Incentive compensation, Logistics expense, Distribution costs, Buying costs</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the third quarter of 2023 and 2022, we recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy. See the Notes to this reconciliation for additional detail.</t>
+          <t>Fair market value adjustment and gain on sale of equity investments- During the third quarter of 2023, we recorded a $0.2 million ($0.1 million, net of tax) loss related to adjusting our investment in Brazil to fair value at the date of the acquisition. On August 7, 2023, we purchased the remaining interest of our equity investment in Brazil. The investment in Brazil has a readily determinable fair value and the carrying value of the investment was adjusted to fair value as of the close date, resulting in a loss. Prior to the acquisition, the investment in Brazil was adjusted to fair value at the end of each reporting period, with unrealized gains or losses recorded within the Consolidated Statements of Income in Other income, net. During the third quarter of 2022 we recorded a $17.5 million ($ 11.4 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to the sale of an equity method investment. Management believes excluding these charges from certain</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-5.917209148406982</v>
+        <v>-7.409624099731445</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Social inflation, Interest rates, Materials inflation, Claims inflation, Order rates</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Sector trend, Macro</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the third quarter of 2023 and 2022, we recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy. See the Notes to this reconciliation for additional detail.</t>
+          <t>Fair market value adjustment and gain on sale of equity investments- During the third quarter of 2023, we recorded a $0.2 million ($0.1 million, net of tax) loss related to adjusting our investment in Brazil to fair value at the date of the acquisition. On August 7, 2023, we purchased the remaining interest of our equity investment in Brazil. The investment in Brazil has a readily determinable fair value and the carrying value of the investment was adjusted to fair value as of the close date, resulting in a loss. Prior to the acquisition, the investment in Brazil was adjusted to fair value at the end of each reporting period, with unrealized gains or losses recorded within the Consolidated Statements of Income in Other income, net. During the third quarter of 2022 we recorded a $17.5 million ($ 11.4 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to the sale of an equity method investment. Management believes excluding these charges from certain</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-7.586465835571289</v>
+        <v>4.802919387817383</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2766,35 +2766,35 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded an adjustment of $2.3 million ($1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023. See the Notes to this reconciliation for additional detail.</t>
+          <t>Fair market value adjustment and gain on sale of equity investments- During the third quarter of 2023, we recorded a $0.2 million ($0.1 million, net of tax) loss related to adjusting our investment in Brazil to fair value at the date of the acquisition. On August 7, 2023, we purchased the remaining interest of our equity investment in Brazil. The investment in Brazil has a readily determinable fair value and the carrying value of the investment was adjusted to fair value as of the close date, resulting in a loss. Prior to the acquisition, the investment in Brazil was adjusted to fair value at the end of each reporting period, with unrealized gains or losses recorded within the Consolidated Statements of Income in Other income, net. During the third quarter of 2022 we recorded a $17.5 million ($ 11.4 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to the sale of an equity method investment. Management believes excluding these charges from certain</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>6.892058372497559</v>
+        <v>8.798427581787109</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs, Risk adjustment</t>
+          <t>Net Interest Income, Collateral value</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>During the third quarter of 2022, we recorded a gain on the settlement of Canada pension plan of $2.2 million ($3.1 million, net of tax). We received a tax deduction for the settlement payments made resulting in a tax benefit. The impact is recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>Fair market value adjustment and gain on sale of equity investments- During the third quarter of 2023, we recorded a $0.2 million ($0.1 million, net of tax) loss related to adjusting our investment in Brazil to fair value at the date of the acquisition. On August 7, 2023, we purchased the remaining interest of our equity investment in Brazil. The investment in Brazil has a readily determinable fair value and the carrying value of the investment was adjusted to fair value as of the close date, resulting in a loss. Prior to the acquisition, the investment in Brazil was adjusted to fair value at the end of each reporting period, with unrealized gains or losses recorded within the Consolidated Statements of Income in Other income, net. During the third quarter of 2022 we recorded a $17.5 million ($ 11.4 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to the sale of an equity method investment. Management believes excluding these charges from certain</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>9.445126533508301</v>
+        <v>-0.3548321723937988</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Net Interest Income, Fee Income</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2806,75 +2806,75 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a tax benefit of $28.2 million related to the write off of a deferred tax liability related to our original investment in Boa Vista Serviços as a result of our purchase of the remaining interest in Boa Vista Serviços in the same quarter. See Notes to this reconciliation for additional detail.</t>
+          <t>Foreign currency impact of certain intercompany loans - During the third quarter of 2023 and 2022, we recorded a gain of $0.4 million and $0.5 million, respectively, related to foreign currency impact of certain intercompany loans. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4.118074417114258</v>
+        <v>-1.278484582901001</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ECB interest rate</t>
+          <t>Non-performing loans</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Regulation</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded the tax impact of adjustments of $16.7 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $12.7 million ($16.7 million of tax expense net of $4.0 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to the fair market value adjustment of equity investments, (iii) a tax adjustment of $4.5 million related to acquisition-related costs other than acquisition amortization and (iv) a tax adjustment of $0.6 million related to the realignment of resources.</t>
+          <t>Acquisition-related costs other than acquisition amortization - During the third quarter of</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>8.505781173706055</v>
+        <v>9.371554374694824</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Logistics expense, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Sector trend</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>During the third quarter of 2022, we recorded the tax impact of adjustments of $10.6 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $11.0 million ($15.1 million of tax expense net of $4.1 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to an accrual for legal and regulatory matters related to the 2017 cybersecurity incident, (iii) a tax adjustment of $6.1 million related to the gain on fair market value adjustment and gain on sale of equity investment, (iv) a tax adjustment of $4.7 million related to acquisition-related costs other than acquisition amortization and</t>
+          <t>($14.4 million, net of tax), respectively, for acquisition-related costs other than acquisition</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>8.563408851623535</v>
+        <v>9.428150177001953</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Logistics expense, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Sector trend</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>(v) a tax adjustment of $0.9 million related to the gain on settlement of Canada pension plan.</t>
+          <t>amortization. These costs primarily related to integration costs resulting from recent</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>8.46726131439209</v>
+        <v>4.460659027099609</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Risk adjustment</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2886,1280 +2886,180 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Reconciliation of net income attributable to Equifax to adjusted EBITDA, defined as net income excluding income taxes, interest expense, net, depreciation and amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension and presentation of adjusted EBITDA margin:</t>
+          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>8.663798332214355</v>
+        <v>9.534843444824219</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Collateral value, ECB interest rate, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Incentive compensation, Net Interest Income, Distribution costs</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Regulation</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>*Excludes interest income of $6.2 million in 2023 and $0.5 million 2022.</t>
+          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>9.604327201843262</v>
+        <v>5.368978500366211</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ECB interest rate, Credit income</t>
+          <t>Incentive compensation, Distribution costs</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Sector trend, Regulation</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a loss on the fair market value adjustment of equity investments of $0.2 million</t>
+          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-7.122627258300781</v>
+        <v>9.202747344970703</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Incentive compensation, Credit cost, Fuel cost</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Sector trend</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>($0.1 million, net of tax). During the third quarter of 2022, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $17.5 million ($11.4 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers. We recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million during the third quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.8353958129882812</v>
+        <v>-5.854397296905518</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Materials inflation, Claims inflation, Order rates</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Sector trend</t>
+          <t>Macro, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>($0.1 million, net of tax). During the third quarter of 2022, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $17.5 million ($11.4 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>Adjustment related to the realignment of resources and other costs - During the third</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>9.423862457275391</v>
+        <v>9.01638126373291</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Net Interest Income, Fee Income, Collateral value</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million. During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million. See the Notes to this reconciliation for additional detail.</t>
+          <t>quarter of 2023, we recorded an adjustment of $2.3 million ($ 1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023. Management believes excluding this adjustment from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since the adjustment is not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1.067872285842896</v>
+        <v>6.984883308410645</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million. During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million. See the Notes to this reconciliation for additional detail.</t>
+          <t>Adjustments to deferred tax balances - During the third quarter of 2023, we recorded a tax benefit of $28.2 million related to the write off of a deferred tax liability related to our original investment in Boa Vista Serviços as a result of our purchase of the remaining interest in Boa Vista Serviços in the same quarter. We determined the deferred tax balance should no longer be recorded as a result of our purchase of the remaining interest in Boa Vista Serviços during the third quarter of 2023. Management believes excluding this tax effect from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since this tax benefit is not comparable among the periods. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.9982714653015137</v>
+        <v>9.499053001403809</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Credit card balance</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Adjusted EBITDA and EBITDA margin - Management defines adjusted EBITDA as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization and also excludes certain one-time items. Management believes the use of adjusted EBITDA and adjusted EBITDA margin allows investors to evaluate our performance for different periods on a more comparable basis.</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>9.229917526245117</v>
+        <v>9.255197525024414</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Adjusted EBITDA and EBITDA margin - Management defines adjusted EBITDA as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization and also excludes certain one-time items. Management believes the use of adjusted EBITDA and adjusted EBITDA margin allows investors to evaluate our performance for different periods on a more comparable basis.</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>9.317598342895508</v>
+        <v>9.08729362487793</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>8.538983345031738</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Distribution costs, Buying costs, Credit income</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the third quarter of 2023 and 2022, we recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy. See the Notes to this reconciliation for additional detail.</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>-5.917209148406982</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Social inflation, Interest rates, Materials inflation, Claims inflation, Order rates</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Sector trend, Macro</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the third quarter of 2023 and 2022, we recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy. See the Notes to this reconciliation for additional detail.</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>-7.586465835571289</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Risk-weighted assets / Risk-weightings</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>During the third quarter of 2023, we recorded an adjustment of $2.3 million ($1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023. See the Notes to this reconciliation for additional detail.</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>6.892058372497559</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Distribution costs, Buying costs, Risk adjustment</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>During the third quarter of 2022, we recorded a gain on the settlement of Canada pension plan of $2.2 million ($3.1 million, net of tax). We received a tax deduction for the settlement payments made resulting in a tax benefit. The impact is recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>9.445126533508301</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Net Interest Income, Fee Income</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Reconciliation of operating income by segment to Adjusted EBITDA, excluding depreciation and amortization expense, other income, net, noncontrolling interest, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension and presentation of adjusted EBITDA margin for each of the segments:</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>8.498407363891602</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Gross margin, Contribution margin, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Financial metric - All, Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>*Excludes interest income of $0.5 million in International.</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>9.566502571105957</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>ECB interest rate, Credit income</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Sector trend, Regulation</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>During the third quarter of 2023, we recorded pre-tax expenses of $14.2 million for an accrual for legal and regulatory matters related to the 2017 cybersecurity incident, a $0.2 million loss on the fair value adjustment of equity investments, a $0.4 million foreign currency gain on certain intercompany loans, $24.4 million for acquisition-related costs other than acquisition amortization, a foreign currency loss of $0.4 million related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy and $2.3 million of an adjustment to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023.</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>-2.115517139434814</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Risk-weighted assets / Risk-weightings, Collateral value, Distribution costs, Buying costs, Risk adjustment</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>During the third quarter of 2022, we recorded pre-tax expenses of $0.2 million for accrual for legal and regulatory matters related to the 2017 cybersecurity incident, a $17.5 million unrealized gain on the fair value adjustment and gain on sale of equity investments, a $0.5 million foreign currency gain on certain intercompany loans, $19.1 million in acquisition-related costs other than acquisition amortization, a $0.2 million foreign currency gain related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy and a gain of $2.2 million on the settlement of Canada pension plan.</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>-1.308243989944458</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Risk-weighted assets / Risk-weightings, Collateral value, Distribution costs, Buying costs, Risk adjustment</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Diluted EPS attributable to Equifax is adjusted for the following items:</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>9.254966735839844</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Earnings per Share / EPS</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Financial metric - All</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Acquisition-related amortization expense - During the third quarter of 2023 and 2022, we recorded acquisition -related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax) and $59.1 million ($48.1 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>7.732206344604492</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Logistics expense</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Acquisition-related amortization expense - During the third quarter of 2023 and 2022, we recorded acquisition -related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax) and $59.1 million ($48.1 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>9.315138816833496</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Raw material, Logistics expense, Credit income</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Financial metric - All, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Acquisition-related amortization expense - During the third quarter of 2023 and 2022, we recorded acquisition -related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax) and $59.1 million ($48.1 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>5.602523326873779</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Wealth Management, Logistics expense, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Acquisition-related amortization expense - During the third quarter of 2023 and 2022, we recorded acquisition -related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax) and $59.1 million ($48.1 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.6353862285614014</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Raw material, Credit income</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Financial metric - All, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Acquisition-related amortization expense - During the third quarter of 2023 and 2022, we recorded acquisition -related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax) and $59.1 million ($48.1 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>-0.5581936836242676</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Wealth Management, Collateral value, Credit income</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Acquisition-related amortization expense - During the third quarter of 2023 and 2022, we recorded acquisition -related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax) and $59.1 million ($48.1 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>8.822175979614258</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Wealth Management, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Accrual for legal and regulatory matters related to the 2017 cybersecurity incident-Accrual for legal and regulatory matters related to the 2017 cybersecurity incident includes legal fees to respond to subsequent litigation and government investigations for both periods presented. During the third quarter of 2023, we recorded an accrual for legal and regulatory matters related to the 2017 cybersecurity incident of $ 14.2 million primarily driven by our accrual for a penalty associated with resolution of the investigation of the incident by the Financial Conduct Authority in the United Kingdom. During the third quarter of 2022, we recorded an accrual for legal and regulatory matters related to the 2017 cybersecurity incident of $0.2 million ($0.1 million, net of tax). Management believes excluding these charges is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. Management makes these adjustments to net income when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>9.464744567871094</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>AML litigation, Credit card fees</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Sector trend, Regulation</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Accrual for legal and regulatory matters related to the 2017 cybersecurity incident-Accrual for legal and regulatory matters related to the 2017 cybersecurity incident includes legal fees to respond to subsequent litigation and government investigations for both periods presented. During the third quarter of 2023, we recorded an accrual for legal and regulatory matters related to the 2017 cybersecurity incident of $ 14.2 million primarily driven by our accrual for a penalty associated with resolution of the investigation of the incident by the Financial Conduct Authority in the United Kingdom. During the third quarter of 2022, we recorded an accrual for legal and regulatory matters related to the 2017 cybersecurity incident of $0.2 million ($0.1 million, net of tax). Management believes excluding these charges is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. Management makes these adjustments to net income when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>2.802738666534424</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Wealth Management, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Accrual for legal and regulatory matters related to the 2017 cybersecurity incident-Accrual for legal and regulatory matters related to the 2017 cybersecurity incident includes legal fees to respond to subsequent litigation and government investigations for both periods presented. During the third quarter of 2023, we recorded an accrual for legal and regulatory matters related to the 2017 cybersecurity incident of $ 14.2 million primarily driven by our accrual for a penalty associated with resolution of the investigation of the incident by the Financial Conduct Authority in the United Kingdom. During the third quarter of 2022, we recorded an accrual for legal and regulatory matters related to the 2017 cybersecurity incident of $0.2 million ($0.1 million, net of tax). Management believes excluding these charges is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. Management makes these adjustments to net income when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>8.856791496276855</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Wealth Management, Credit income, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Accrual for legal and regulatory matters related to the 2017 cybersecurity incident-Accrual for legal and regulatory matters related to the 2017 cybersecurity incident includes legal fees to respond to subsequent litigation and government investigations for both periods presented. During the third quarter of 2023, we recorded an accrual for legal and regulatory matters related to the 2017 cybersecurity incident of $ 14.2 million primarily driven by our accrual for a penalty associated with resolution of the investigation of the incident by the Financial Conduct Authority in the United Kingdom. During the third quarter of 2022, we recorded an accrual for legal and regulatory matters related to the 2017 cybersecurity incident of $0.2 million ($0.1 million, net of tax). Management believes excluding these charges is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. Management makes these adjustments to net income when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>9.82115364074707</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Fair market value adjustment and gain on sale of equity investments- During the third quarter of 2023, we recorded a $0.2 million ($0.1 million, net of tax) loss related to adjusting our investment in Brazil to fair value at the date of the acquisition. On August 7, 2023, we purchased the remaining interest of our equity investment in Brazil. The investment in Brazil has a readily determinable fair value and the carrying value of the investment was adjusted to fair value as of the close date, resulting in a loss. Prior to the acquisition, the investment in Brazil was adjusted to fair value at the end of each reporting period, with unrealized gains or losses recorded within the Consolidated Statements of Income in Other income, net. During the third quarter of 2022 we recorded a $17.5 million ($ 11.4 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to the sale of an equity method investment. Management believes excluding these charges from certain</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>-7.409624099731445</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Fair market value adjustment and gain on sale of equity investments- During the third quarter of 2023, we recorded a $0.2 million ($0.1 million, net of tax) loss related to adjusting our investment in Brazil to fair value at the date of the acquisition. On August 7, 2023, we purchased the remaining interest of our equity investment in Brazil. The investment in Brazil has a readily determinable fair value and the carrying value of the investment was adjusted to fair value as of the close date, resulting in a loss. Prior to the acquisition, the investment in Brazil was adjusted to fair value at the end of each reporting period, with unrealized gains or losses recorded within the Consolidated Statements of Income in Other income, net. During the third quarter of 2022 we recorded a $17.5 million ($ 11.4 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to the sale of an equity method investment. Management believes excluding these charges from certain</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>9.561361312866211</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>ECB interest rate</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Regulation</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Fair market value adjustment and gain on sale of equity investments- During the third quarter of 2023, we recorded a $0.2 million ($0.1 million, net of tax) loss related to adjusting our investment in Brazil to fair value at the date of the acquisition. On August 7, 2023, we purchased the remaining interest of our equity investment in Brazil. The investment in Brazil has a readily determinable fair value and the carrying value of the investment was adjusted to fair value as of the close date, resulting in a loss. Prior to the acquisition, the investment in Brazil was adjusted to fair value at the end of each reporting period, with unrealized gains or losses recorded within the Consolidated Statements of Income in Other income, net. During the third quarter of 2022 we recorded a $17.5 million ($ 11.4 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to the sale of an equity method investment. Management believes excluding these charges from certain</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>4.802919387817383</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Collateral value</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Fair market value adjustment and gain on sale of equity investments- During the third quarter of 2023, we recorded a $0.2 million ($0.1 million, net of tax) loss related to adjusting our investment in Brazil to fair value at the date of the acquisition. On August 7, 2023, we purchased the remaining interest of our equity investment in Brazil. The investment in Brazil has a readily determinable fair value and the carrying value of the investment was adjusted to fair value as of the close date, resulting in a loss. Prior to the acquisition, the investment in Brazil was adjusted to fair value at the end of each reporting period, with unrealized gains or losses recorded within the Consolidated Statements of Income in Other income, net. During the third quarter of 2022 we recorded a $17.5 million ($ 11.4 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to the sale of an equity method investment. Management believes excluding these charges from certain</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>8.798427581787109</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Net Interest Income, Fee Income, Collateral value</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Fair market value adjustment and gain on sale of equity investments- During the third quarter of 2023, we recorded a $0.2 million ($0.1 million, net of tax) loss related to adjusting our investment in Brazil to fair value at the date of the acquisition. On August 7, 2023, we purchased the remaining interest of our equity investment in Brazil. The investment in Brazil has a readily determinable fair value and the carrying value of the investment was adjusted to fair value as of the close date, resulting in a loss. Prior to the acquisition, the investment in Brazil was adjusted to fair value at the end of each reporting period, with unrealized gains or losses recorded within the Consolidated Statements of Income in Other income, net. During the third quarter of 2022 we recorded a $17.5 million ($ 11.4 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to the sale of an equity method investment. Management believes excluding these charges from certain</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>-0.3548321723937988</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Collateral value</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Fair market value adjustment and gain on sale of equity investments- During the third quarter of 2023, we recorded a $0.2 million ($0.1 million, net of tax) loss related to adjusting our investment in Brazil to fair value at the date of the acquisition. On August 7, 2023, we purchased the remaining interest of our equity investment in Brazil. The investment in Brazil has a readily determinable fair value and the carrying value of the investment was adjusted to fair value as of the close date, resulting in a loss. Prior to the acquisition, the investment in Brazil was adjusted to fair value at the end of each reporting period, with unrealized gains or losses recorded within the Consolidated Statements of Income in Other income, net. During the third quarter of 2022 we recorded a $17.5 million ($ 11.4 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to the sale of an equity method investment. Management believes excluding these charges from certain</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>9.551884651184082</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Wealth Management</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023 and 2022, since the non-operating gains or losses are not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>9.820903778076172</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Foreign currency impact of certain intercompany loans - During the third quarter of 2023 and 2022, we recorded a gain of $0.4 million and $0.5 million, respectively, related to foreign currency impact of certain intercompany loans. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>-1.278484582901001</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Foreign currency impact of certain intercompany loans - During the third quarter of 2023 and 2022, we recorded a gain of $0.4 million and $0.5 million, respectively, related to foreign currency impact of certain intercompany loans. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>2.99648904800415</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Wealth Management, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Foreign currency impact of certain intercompany loans - During the third quarter of 2023 and 2022, we recorded a gain of $0.4 million and $0.5 million, respectively, related to foreign currency impact of certain intercompany loans. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>9.82115364074707</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Acquisition-related costs other than acquisition amortization - During the third quarter of</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>9.371554374694824</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Distribution costs, Buying costs</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>($14.4 million, net of tax), respectively, for acquisition-related costs other than acquisition</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>9.428150177001953</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Distribution costs, Buying costs</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>amortization. These costs primarily related to integration costs resulting from recent</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>4.460659027099609</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Distribution costs, Buying costs</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>acquisitions and were recorded in operating income. Management believes excluding this</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>9.41667652130127</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Credit income</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>acquisitions and were recorded in operating income. Management believes excluding this</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>9.441339492797852</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Wealth Management</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>historical performance and is useful when planning, forecasting, and analyzing future</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>9.687721252441406</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>9.534843444824219</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Incentive compensation, Net Interest Income, Fee Income, Distribution costs, Buying costs</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Financial metric - All, Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>5.368978500366211</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Incentive compensation, Distribution costs, Buying costs</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Financial metric - All, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>9.202747344970703</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Incentive compensation, Credit cost, Wealth Management, Fuel cost, Credit income, Price cost spread</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Financial metric - All, Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>9.82115364074707</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers. We recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million during the third quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>-5.854397296905518</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Social inflation, Interest rates, Materials inflation, Claims inflation, Risk adjustment, Order rates</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Sector trend, Macro</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers. We recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million during the third quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>-7.698788642883301</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Risk-weighted assets / Risk-weightings</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers. We recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million during the third quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>2.99648904800415</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Wealth Management, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers. We recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million during the third quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>9.82115364074707</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Adjustment related to the realignment of resources and other costs - During the third</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>9.01638126373291</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Distribution costs, Buying costs</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>quarter of 2023, we recorded an adjustment of $2.3 million ($ 1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023. Management believes excluding this adjustment from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since the adjustment is not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>6.984883308410645</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Distribution costs, Buying costs, Risk adjustment</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>quarter of 2023, we recorded an adjustment of $2.3 million ($ 1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023. Management believes excluding this adjustment from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since the adjustment is not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>8.146690368652344</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Wealth Management, Risk adjustment</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>quarter of 2023, we recorded an adjustment of $2.3 million ($ 1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023. Management believes excluding this adjustment from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since the adjustment is not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>9.820903778076172</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Gain on settlement of Canada pension plan - During the third quarter of 2022, we recorded an gain on the settlement of our Canada pension plan of $2.2 million ($3.1 million, net of tax). We received a tax deduction for the settlement payments made resulting in a tax benefit. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. The impact is recorded to the Other income, net line item within the Consolidated Statements of Income.</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>2.99648904800415</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Wealth Management, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank, Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Adjustments to deferred tax balances - During the third quarter of 2023, we recorded a tax benefit of $28.2 million related to the write off of a deferred tax liability related to our original investment in Boa Vista Serviços as a result of our purchase of the remaining interest in Boa Vista Serviços in the same quarter. We determined the deferred tax balance should no longer be recorded as a result of our purchase of the remaining interest in Boa Vista Serviços during the third quarter of 2023. Management believes excluding this tax effect from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since this tax benefit is not comparable among the periods. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>4.344397068023682</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>ECB interest rate</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Regulation</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Adjustments to deferred tax balances - During the third quarter of 2023, we recorded a tax benefit of $28.2 million related to the write off of a deferred tax liability related to our original investment in Boa Vista Serviços as a result of our purchase of the remaining interest in Boa Vista Serviços in the same quarter. We determined the deferred tax balance should no longer be recorded as a result of our purchase of the remaining interest in Boa Vista Serviços during the third quarter of 2023. Management believes excluding this tax effect from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since this tax benefit is not comparable among the periods. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>9.499053001403809</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>ECB interest rate</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Regulation</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Adjustments to deferred tax balances - During the third quarter of 2023, we recorded a tax benefit of $28.2 million related to the write off of a deferred tax liability related to our original investment in Boa Vista Serviços as a result of our purchase of the remaining interest in Boa Vista Serviços in the same quarter. We determined the deferred tax balance should no longer be recorded as a result of our purchase of the remaining interest in Boa Vista Serviços during the third quarter of 2023. Management believes excluding this tax effect from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since this tax benefit is not comparable among the periods. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>9.001229286193848</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Wealth Management</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Adjustments to deferred tax balances - During the third quarter of 2023, we recorded a tax benefit of $28.2 million related to the write off of a deferred tax liability related to our original investment in Boa Vista Serviços as a result of our purchase of the remaining interest in Boa Vista Serviços in the same quarter. We determined the deferred tax balance should no longer be recorded as a result of our purchase of the remaining interest in Boa Vista Serviços during the third quarter of 2023. Management believes excluding this tax effect from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since this tax benefit is not comparable among the periods. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>9.82115364074707</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Adjusted EBITDA and EBITDA margin - Management defines adjusted EBITDA as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization and also excludes certain one-time items. Management believes the use of adjusted EBITDA and adjusted EBITDA margin allows investors to evaluate our performance for different periods on a more comparable basis.</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>9.255197525024414</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Gross margin, Contribution margin, Wealth Management, ECB interest rate, Credit income</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Bank, Regulation</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Adjusted EBITDA and EBITDA margin - Management defines adjusted EBITDA as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization and also excludes certain one-time items. Management believes the use of adjusted EBITDA and adjusted EBITDA margin allows investors to evaluate our performance for different periods on a more comparable basis.</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>9.08729362487793</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Gross margin, Contribution margin, Wealth Management, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Financial metric - All, Financial metric - Bank, Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
